--- a/uhd_data.xlsx
+++ b/uhd_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geeks\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B2B8C-DA45-4088-8F1C-5902FC8C77D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E92CD0-9DB5-4B45-8132-EE3C15CEFAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2927,7 +2927,7 @@
         <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>253</v>

--- a/uhd_data.xlsx
+++ b/uhd_data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geeks\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geeks\Desktop\Programming_Files\unlogged_hours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E92CD0-9DB5-4B45-8132-EE3C15CEFAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F208BA0-68D0-41E3-8657-24BB6729A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="uhd_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="452">
   <si>
     <t>Employee Name</t>
   </si>
@@ -577,9 +577,6 @@
     <t>Marah Radi Ahmad Tuffaha</t>
   </si>
   <si>
-    <t>marah_tuffaha@outlook.com</t>
-  </si>
-  <si>
     <t>mariam.qadadeh@prezlab.com</t>
   </si>
   <si>
@@ -1013,6 +1010,372 @@
   </si>
   <si>
     <t>zaineh.alhamouri@prezlab.com</t>
+  </si>
+  <si>
+    <t>018d8fad-0eb2-4ce9-bffa-09032f7459e6</t>
+  </si>
+  <si>
+    <t>02923230-8876-46e1-b66e-84acd9859a07</t>
+  </si>
+  <si>
+    <t>03f00ff7-1d2e-42cc-ad6e-b67e6caca6a8</t>
+  </si>
+  <si>
+    <t>051be110-871a-4928-846e-9350f5eb86e4</t>
+  </si>
+  <si>
+    <t>0a1fc688-9fec-459f-a8c0-cc6ac97a2576</t>
+  </si>
+  <si>
+    <t>0cd4066c-596b-423e-a3eb-9eb8f95147e2</t>
+  </si>
+  <si>
+    <t>0d8f622a-beb4-4fcd-8acf-0c81fb7f5752</t>
+  </si>
+  <si>
+    <t>0e0b189f-73ef-46ec-8650-91a6585bdd41</t>
+  </si>
+  <si>
+    <t>0e9c0b22-033a-470b-9305-8e1f2f9a09c6</t>
+  </si>
+  <si>
+    <t>0f103fe3-8d12-4275-8a5b-1be59bf1eab4</t>
+  </si>
+  <si>
+    <t>10cee100-af87-46dc-a7cb-0937fd005c0e</t>
+  </si>
+  <si>
+    <t>1258d9bc-4a38-4b65-b9ec-75388ec19cb4</t>
+  </si>
+  <si>
+    <t>1af8f4d6-3028-46df-9c80-ffa07c81ec40</t>
+  </si>
+  <si>
+    <t>1d3b04bd-6e10-46f3-b458-309ad0c44fc2</t>
+  </si>
+  <si>
+    <t>229e77a0-5bec-4657-96b6-77a7ad702d1f</t>
+  </si>
+  <si>
+    <t>23383915-3f05-4b0e-82b1-72ac6c91f8d2</t>
+  </si>
+  <si>
+    <t>2481cec1-2e4c-444b-8226-113b80da9599</t>
+  </si>
+  <si>
+    <t>2a81305b-1860-4471-b452-fd55ce9ba5fd</t>
+  </si>
+  <si>
+    <t>2adadb3d-d46f-4b6e-a1e4-2c11fcb89373</t>
+  </si>
+  <si>
+    <t>2fa9f2db-32b9-4b1b-b852-8940973f9c35</t>
+  </si>
+  <si>
+    <t>316948b2-3d4a-4e81-b624-dd11d8402651</t>
+  </si>
+  <si>
+    <t>32d479bf-bcc4-4c9c-9cf4-e1ab7442ee0d</t>
+  </si>
+  <si>
+    <t>34022771-083d-4ba5-9ba3-659bff522441</t>
+  </si>
+  <si>
+    <t>349c4641-647e-4f52-99e9-b6344780ae3e</t>
+  </si>
+  <si>
+    <t>3673fabf-051f-4a96-bc9f-fc9e6a982e18</t>
+  </si>
+  <si>
+    <t>38c29ece-4c27-49d8-b5db-5dcb4aca6ab0</t>
+  </si>
+  <si>
+    <t>39b2d801-5996-4645-9c43-c6d8a90cfa8a</t>
+  </si>
+  <si>
+    <t>3ccfb34e-fd3f-4c8b-9671-1b71cf49c4ce</t>
+  </si>
+  <si>
+    <t>3e5d1447-9e98-4676-a935-86c6eb98eec1</t>
+  </si>
+  <si>
+    <t>3f77f925-1e88-4ac4-a7e9-2ede44031e6d</t>
+  </si>
+  <si>
+    <t>421ac6d0-91a1-422f-adf6-4c3020a2ffb7</t>
+  </si>
+  <si>
+    <t>4385651c-97e7-466c-b10f-3341cd46d0be</t>
+  </si>
+  <si>
+    <t>49cc4c69-0707-4bb9-8ba5-c418968ca177</t>
+  </si>
+  <si>
+    <t>4a661c9a-8b8e-4ea9-83d2-340bfce72410</t>
+  </si>
+  <si>
+    <t>4abaafa1-9143-4cc9-9086-d6fa7aeb22a2</t>
+  </si>
+  <si>
+    <t>4d1001ca-fec0-42b3-b532-0efa679f4819</t>
+  </si>
+  <si>
+    <t>4d184068-e007-4ceb-9275-728fcfabb7cd</t>
+  </si>
+  <si>
+    <t>4e3ea139-0f79-45f2-a70c-0331d094081b</t>
+  </si>
+  <si>
+    <t>4faee7d8-8b05-4f9a-9f80-dc71fe771018</t>
+  </si>
+  <si>
+    <t>50adf1af-bda8-4f16-8c7f-b6262ad33600</t>
+  </si>
+  <si>
+    <t>520b8dd0-13ef-4004-a475-196ac89ff206</t>
+  </si>
+  <si>
+    <t>55985b80-eac9-43c0-ba3b-661d8dfeebf4</t>
+  </si>
+  <si>
+    <t>588defc0-4175-4657-9796-81d280eb0c48</t>
+  </si>
+  <si>
+    <t>5a6c5ee2-22a8-4293-a7e5-86023f3dcd0f</t>
+  </si>
+  <si>
+    <t>5beccbd1-cee6-4f3e-996c-8783079564da</t>
+  </si>
+  <si>
+    <t>5df33825-8762-4058-b9ce-fac5ea2f95f8</t>
+  </si>
+  <si>
+    <t>62f4a029-b6dc-44a6-9ba8-e775d5e2e26d</t>
+  </si>
+  <si>
+    <t>65711db0-2dbc-4ca8-870a-4e9772fa841f</t>
+  </si>
+  <si>
+    <t>6f0b0d96-5124-485b-9b4e-894bc830e1c0</t>
+  </si>
+  <si>
+    <t>6f0b0dbb-3ecb-4350-9f44-e9e106adb39c</t>
+  </si>
+  <si>
+    <t>6f55b9f1-c18f-4181-aeae-d1e4aabb0f39</t>
+  </si>
+  <si>
+    <t>7147f56e-de55-4cf4-99db-7006f6d896f8</t>
+  </si>
+  <si>
+    <t>73d7e2de-3b1b-4785-a526-e9c2e0bbafb4</t>
+  </si>
+  <si>
+    <t>7c7d2052-eb27-4241-a665-5db2dcb9d0e5</t>
+  </si>
+  <si>
+    <t>7fb0f950-6566-4c4d-a35e-9303fce9c86a</t>
+  </si>
+  <si>
+    <t>825ed6cf-7fe8-479c-b10b-d068b55bce3c</t>
+  </si>
+  <si>
+    <t>8945329d-84ef-4094-908d-624fa5e853fc</t>
+  </si>
+  <si>
+    <t>89a54cc3-0a01-4cfc-b28b-5defebfecc45</t>
+  </si>
+  <si>
+    <t>8c488f7b-0395-4871-9c0f-4d989e8a1ec3</t>
+  </si>
+  <si>
+    <t>8cb01ac3-2e6b-43d1-bbb1-09ed397e53c1</t>
+  </si>
+  <si>
+    <t>8f36ad39-2927-4486-b0d3-c78ba4ac8c41</t>
+  </si>
+  <si>
+    <t>92e8e05d-8ebc-49a9-9833-f1205d5f926d</t>
+  </si>
+  <si>
+    <t>943a48de-f85c-4cd1-8699-797c68c5fefa</t>
+  </si>
+  <si>
+    <t>9571a8ca-1025-488d-bb2f-1922a1dbabdd</t>
+  </si>
+  <si>
+    <t>96ac6cc7-2631-48ab-9f87-d407f4547ad7</t>
+  </si>
+  <si>
+    <t>9bc93afb-fa7c-4633-a940-5ef31022c2ae</t>
+  </si>
+  <si>
+    <t>9d003f17-9fe6-4a8b-a761-083e9c42f296</t>
+  </si>
+  <si>
+    <t>9ed7acf1-de20-4c50-b56e-bbde348678dc</t>
+  </si>
+  <si>
+    <t>a04e38d0-1939-4a15-b5d3-588a74cb4528</t>
+  </si>
+  <si>
+    <t>a19c0167-5a70-4785-9b5a-830895022f08</t>
+  </si>
+  <si>
+    <t>a59aba28-a810-4dcb-a129-3621dabdfde7</t>
+  </si>
+  <si>
+    <t>a87fa938-8e6e-40d2-93d7-d9afabc705b5</t>
+  </si>
+  <si>
+    <t>aaead5b8-1ed9-4ca7-bb57-ee895bc541cf</t>
+  </si>
+  <si>
+    <t>ab346baf-79b6-4125-88e0-24bc75e119ef</t>
+  </si>
+  <si>
+    <t>b00e89a0-5b25-4503-b662-264da7eea5ad</t>
+  </si>
+  <si>
+    <t>b3571c5e-1773-4fe9-97f9-0cf35b3d0d1f</t>
+  </si>
+  <si>
+    <t>b55e3fd6-d481-46c2-9ae4-ecb57ed5d19c</t>
+  </si>
+  <si>
+    <t>b5b97a10-cbd7-4ae1-b8d6-a4285d5a10d2</t>
+  </si>
+  <si>
+    <t>bb0712e1-d424-42da-bf37-ee07ff9d3129</t>
+  </si>
+  <si>
+    <t>bb4af541-5cd2-4a46-a34a-560de6fedfe0</t>
+  </si>
+  <si>
+    <t>be191367-5598-4e57-a262-fbddbb9bc477</t>
+  </si>
+  <si>
+    <t>be70fa6e-6e42-4621-ab9d-ba2560aed193</t>
+  </si>
+  <si>
+    <t>c0478dd5-cff4-4549-ae84-bb6361885e5a</t>
+  </si>
+  <si>
+    <t>c310210e-95ba-4d10-b163-905a63fcfc5e</t>
+  </si>
+  <si>
+    <t>c3a759b8-0cd7-4148-9d3e-9ef9989d3e94</t>
+  </si>
+  <si>
+    <t>c3f1b2ae-9d54-4818-8484-c55a87c496fc</t>
+  </si>
+  <si>
+    <t>Marah.Tuffaha@prezlab.com</t>
+  </si>
+  <si>
+    <t>c51a02a3-8b6a-49b0-8610-a8546911dcc4</t>
+  </si>
+  <si>
+    <t>c7675302-8edb-4bd1-88f8-7bbbd81a768b</t>
+  </si>
+  <si>
+    <t>c780397c-43cb-47f9-9a9d-d90cccf03e93</t>
+  </si>
+  <si>
+    <t>c8771151-6d39-49a4-90fb-8e466f720656</t>
+  </si>
+  <si>
+    <t>ca4f0936-71f1-452a-8239-106c9773aa56</t>
+  </si>
+  <si>
+    <t>cb7aa765-9cc7-4d7b-b496-9f2b08423e3d</t>
+  </si>
+  <si>
+    <t>cc41cb67-9f0f-4638-a720-b989000593ee</t>
+  </si>
+  <si>
+    <t>cc9ec403-06b1-490e-9deb-6c37de6af0a3</t>
+  </si>
+  <si>
+    <t>ccda0a64-69c4-4f85-837b-4c90a6c1d13a</t>
+  </si>
+  <si>
+    <t>cd8c1f05-8f79-4683-917d-06c800654233</t>
+  </si>
+  <si>
+    <t>d04a7586-6ce3-48a7-8272-828f09eb8002</t>
+  </si>
+  <si>
+    <t>d40cc57e-7f5c-46e7-a15a-02879cc6a8f4</t>
+  </si>
+  <si>
+    <t>d4d314ed-c096-4b10-bc50-bf5379ec8702</t>
+  </si>
+  <si>
+    <t>d9b151d5-18ff-4a64-a83c-cbe3bb505843</t>
+  </si>
+  <si>
+    <t>dbedae9e-84c0-48bc-bb0a-eb710dec18fe</t>
+  </si>
+  <si>
+    <t>dc4fdb4b-2a01-4bb9-9c2b-6750ff0f64bb</t>
+  </si>
+  <si>
+    <t>dcfb451d-f4a9-4e77-a4d9-20a3d703de1a</t>
+  </si>
+  <si>
+    <t>e0e73808-46f8-4c41-81d7-c6ed147c08b9</t>
+  </si>
+  <si>
+    <t>e0fb7675-4772-4cdf-906b-0571496756fc</t>
+  </si>
+  <si>
+    <t>e5bc2afe-adb1-482d-a734-b6ed46668f70</t>
+  </si>
+  <si>
+    <t>e866ee9b-479e-4328-8157-fc55d6ab31f4</t>
+  </si>
+  <si>
+    <t>e88b8bff-e2ac-43c6-869c-8c9a94e14e40</t>
+  </si>
+  <si>
+    <t>edd69a41-2bf4-4784-86d0-46d24487cd86</t>
+  </si>
+  <si>
+    <t>ee47d38d-6fb3-412d-9612-4ef9bdc7b454</t>
+  </si>
+  <si>
+    <t>ee494760-77b1-4b35-85e4-27a24c3f7cc1</t>
+  </si>
+  <si>
+    <t>ef1e937b-51d8-48c4-9b36-d35cb44e2a62</t>
+  </si>
+  <si>
+    <t>f0b7157e-4026-45b5-a023-b56073f9095e</t>
+  </si>
+  <si>
+    <t>f0c7e7c8-5bc5-47f0-b0c5-82490076e195</t>
+  </si>
+  <si>
+    <t>f2cace0b-a5de-4342-91a6-2d7227e44637</t>
+  </si>
+  <si>
+    <t>f42224bc-d082-4f4b-a389-1bfca962a07d</t>
+  </si>
+  <si>
+    <t>f5b23ad3-f542-4984-a144-96c47191db38</t>
+  </si>
+  <si>
+    <t>f61aaeed-8f68-4da2-bf13-d01fd610367a</t>
+  </si>
+  <si>
+    <t>faa6c0bf-e3df-42e3-9051-69cc06033094</t>
+  </si>
+  <si>
+    <t>fc23f1f0-59da-4e89-be26-22854be6c278</t>
+  </si>
+  <si>
+    <t>Microsoft ID</t>
   </si>
 </sst>
 </file>
@@ -1056,17 +1419,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1366,18 +1743,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="30.6640625" customWidth="1"/>
+    <col min="1" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1393,8 +1772,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1410,8 +1792,11 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1427,8 +1812,11 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1444,8 +1832,11 @@
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1461,8 +1852,11 @@
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1478,8 +1872,11 @@
       <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1495,8 +1892,11 @@
       <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1512,8 +1912,11 @@
       <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1529,8 +1932,11 @@
       <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1546,8 +1952,11 @@
       <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1563,8 +1972,11 @@
       <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1580,8 +1992,11 @@
       <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F12" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1597,8 +2012,11 @@
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1614,8 +2032,11 @@
       <c r="E14" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -1631,8 +2052,11 @@
       <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F15" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -1648,8 +2072,11 @@
       <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -1665,8 +2092,11 @@
       <c r="E17" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F17" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
@@ -1682,8 +2112,11 @@
       <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F18" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -1699,8 +2132,11 @@
       <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1716,8 +2152,11 @@
       <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>76</v>
       </c>
@@ -1733,8 +2172,11 @@
       <c r="E21" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1750,8 +2192,11 @@
       <c r="E22" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -1767,8 +2212,11 @@
       <c r="E23" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -1784,8 +2232,11 @@
       <c r="E24" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -1801,8 +2252,11 @@
       <c r="E25" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
@@ -1818,8 +2272,11 @@
       <c r="E26" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -1835,8 +2292,11 @@
       <c r="E27" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -1852,8 +2312,11 @@
       <c r="E28" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -1869,8 +2332,11 @@
       <c r="E29" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F29" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
@@ -1886,8 +2352,11 @@
       <c r="E30" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
@@ -1903,8 +2372,11 @@
       <c r="E31" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F31" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
@@ -1920,8 +2392,11 @@
       <c r="E32" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
@@ -1937,8 +2412,11 @@
       <c r="E33" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F33" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>109</v>
       </c>
@@ -1954,8 +2432,11 @@
       <c r="E34" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -1971,8 +2452,11 @@
       <c r="E35" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -1988,8 +2472,11 @@
       <c r="E36" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -2005,8 +2492,11 @@
       <c r="E37" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
@@ -2022,8 +2512,11 @@
       <c r="E38" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
@@ -2039,8 +2532,11 @@
       <c r="E39" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F39" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>123</v>
       </c>
@@ -2056,8 +2552,11 @@
       <c r="E40" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>125</v>
       </c>
@@ -2073,8 +2572,11 @@
       <c r="E41" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -2090,8 +2592,11 @@
       <c r="E42" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>131</v>
       </c>
@@ -2107,8 +2612,11 @@
       <c r="E43" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2124,8 +2632,11 @@
       <c r="E44" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F44" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>135</v>
       </c>
@@ -2141,8 +2652,11 @@
       <c r="E45" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>138</v>
       </c>
@@ -2158,8 +2672,11 @@
       <c r="E46" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>140</v>
       </c>
@@ -2175,8 +2692,11 @@
       <c r="E47" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>143</v>
       </c>
@@ -2192,8 +2712,11 @@
       <c r="E48" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -2209,8 +2732,11 @@
       <c r="E49" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F49" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -2226,8 +2752,11 @@
       <c r="E50" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F50" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>152</v>
       </c>
@@ -2243,8 +2772,11 @@
       <c r="E51" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>155</v>
       </c>
@@ -2260,8 +2792,11 @@
       <c r="E52" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>157</v>
       </c>
@@ -2277,8 +2812,11 @@
       <c r="E53" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>159</v>
       </c>
@@ -2294,8 +2832,11 @@
       <c r="E54" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>161</v>
       </c>
@@ -2311,8 +2852,11 @@
       <c r="E55" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F55" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>50</v>
       </c>
@@ -2328,8 +2872,11 @@
       <c r="E56" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>167</v>
       </c>
@@ -2345,8 +2892,11 @@
       <c r="E57" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F57" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>169</v>
       </c>
@@ -2362,8 +2912,11 @@
       <c r="E58" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>171</v>
       </c>
@@ -2379,8 +2932,11 @@
       <c r="E59" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>45</v>
       </c>
@@ -2396,8 +2952,11 @@
       <c r="E60" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>175</v>
       </c>
@@ -2413,8 +2972,11 @@
       <c r="E61" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -2430,8 +2992,11 @@
       <c r="E62" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
@@ -2447,8 +3012,11 @@
       <c r="E63" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>184</v>
       </c>
@@ -2461,11 +3029,14 @@
       <c r="D64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>40</v>
       </c>
@@ -2479,12 +3050,15 @@
         <v>8</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
@@ -2496,12 +3070,15 @@
         <v>26</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
@@ -2513,12 +3090,15 @@
         <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>31</v>
@@ -2530,29 +3110,32 @@
         <v>33</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>16</v>
@@ -2564,27 +3147,33 @@
         <v>141</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -2592,18 +3181,21 @@
         <v>31</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>31</v>
@@ -2615,12 +3207,15 @@
         <v>33</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>16</v>
@@ -2632,12 +3227,15 @@
         <v>63</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>16</v>
@@ -2646,49 +3244,58 @@
         <v>58</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>6</v>
@@ -2697,15 +3304,15 @@
         <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E78" s="2" t="s">
+    </row>
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>6</v>
@@ -2717,29 +3324,35 @@
         <v>22</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>6</v>
@@ -2751,12 +3364,15 @@
         <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>6</v>
@@ -2768,55 +3384,64 @@
         <v>22</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>6</v>
@@ -2828,29 +3453,32 @@
         <v>26</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>6</v>
@@ -2862,12 +3490,15 @@
         <v>88</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>6</v>
@@ -2879,29 +3510,35 @@
         <v>22</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>6</v>
@@ -2913,12 +3550,12 @@
         <v>69</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>6</v>
@@ -2927,49 +3564,58 @@
         <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>16</v>
@@ -2981,10 +3627,13 @@
         <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>69</v>
       </c>
@@ -2998,10 +3647,13 @@
         <v>88</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>141</v>
       </c>
@@ -3012,32 +3664,38 @@
         <v>164</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>16</v>
@@ -3049,12 +3707,15 @@
         <v>18</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>6</v>
@@ -3066,10 +3727,13 @@
         <v>88</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>88</v>
       </c>
@@ -3083,12 +3747,15 @@
         <v>45</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>6</v>
@@ -3100,12 +3767,12 @@
         <v>74</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>6</v>
@@ -3117,12 +3784,12 @@
         <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>16</v>
@@ -3134,10 +3801,13 @@
         <v>50</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>63</v>
       </c>
@@ -3148,32 +3818,38 @@
         <v>49</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+      <c r="B106" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>6</v>
@@ -3185,44 +3861,53 @@
         <v>69</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="B108" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>26</v>
       </c>
@@ -3236,10 +3921,13 @@
         <v>45</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>165</v>
       </c>
@@ -3247,18 +3935,21 @@
         <v>48</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>6</v>
@@ -3270,12 +3961,15 @@
         <v>69</v>
       </c>
       <c r="E112" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>6</v>
@@ -3287,12 +3981,15 @@
         <v>26</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>6</v>
@@ -3304,12 +4001,12 @@
         <v>22</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>6</v>
@@ -3321,12 +4018,15 @@
         <v>74</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>6</v>
@@ -3338,10 +4038,13 @@
         <v>88</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>180</v>
       </c>
@@ -3349,18 +4052,21 @@
         <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>6</v>
@@ -3372,12 +4078,15 @@
         <v>88</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>6</v>
@@ -3389,12 +4098,15 @@
         <v>88</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>6</v>
@@ -3406,12 +4118,15 @@
         <v>26</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>16</v>
@@ -3423,12 +4138,15 @@
         <v>50</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>6</v>
@@ -3440,12 +4158,15 @@
         <v>36</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>6</v>
@@ -3457,12 +4178,15 @@
         <v>22</v>
       </c>
       <c r="E123" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>6</v>
@@ -3474,29 +4198,35 @@
         <v>88</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E125" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>6</v>
@@ -3508,12 +4238,15 @@
         <v>69</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>16</v>
@@ -3525,29 +4258,32 @@
         <v>18</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E128" s="2" t="s">
+    </row>
+    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>6</v>
@@ -3559,12 +4295,15 @@
         <v>26</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>6</v>
@@ -3576,10 +4315,16 @@
         <v>36</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uhd_data.xlsx
+++ b/uhd_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geeks\Desktop\Programming_Files\unlogged_hours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F208BA0-68D0-41E3-8657-24BB6729A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{843E6578-6DB9-4470-9B38-8D7C1DF73F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4055,7 +4055,7 @@
         <v>301</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>302</v>

--- a/uhd_data.xlsx
+++ b/uhd_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geeks\Desktop\Programming_Files\unlogged_hours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{843E6578-6DB9-4470-9B38-8D7C1DF73F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CA2644C-B1E0-4DDC-AE90-6A3A597BFC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1746,7 +1746,7 @@
   <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4055,7 +4055,7 @@
         <v>301</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>302</v>

--- a/uhd_data.xlsx
+++ b/uhd_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geeks\Desktop\Programming_Files\unlogged_hours\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geeks\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CA2644C-B1E0-4DDC-AE90-6A3A597BFC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A884E63-9370-4F24-B320-9386F9E2ABFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uhd_data" sheetId="1" r:id="rId1"/>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2967,7 +2967,7 @@
         <v>176</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>177</v>
@@ -4326,5 +4326,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>